--- a/python/data.xlsx
+++ b/python/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>MODEL</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>72 Nm (Est)</t>
-  </si>
-  <si>
-    <t>85 km/charge</t>
   </si>
   <si>
     <t>2.99 - 3.99</t>
@@ -1528,8 +1525,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1664,9 +1661,7 @@
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7">
-        <v>349</v>
-      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="7">
         <v>27</v>
       </c>
@@ -1696,9 +1691,7 @@
       <c r="E7" s="7">
         <v>26</v>
       </c>
-      <c r="F7" s="7">
-        <v>2.97</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1920,9 +1913,7 @@
       <c r="C17" s="7">
         <v>399</v>
       </c>
-      <c r="D17" s="7">
-        <v>36</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7">
         <v>30</v>
       </c>
@@ -1989,9 +1980,7 @@
       <c r="C20" s="7">
         <v>293</v>
       </c>
-      <c r="D20" s="7">
-        <v>27</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7">
         <v>30</v>
       </c>
@@ -2061,22 +2050,22 @@
       <c r="D23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="7">
+        <v>85</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" ht="17.75" spans="1:7">
       <c r="A24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="C24" s="7">
         <v>348</v>
@@ -2087,16 +2076,14 @@
       <c r="E24" s="7">
         <v>35</v>
       </c>
-      <c r="F24" s="7">
-        <v>2.1</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="17.75" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>51</v>
@@ -2119,7 +2106,7 @@
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>39</v>
@@ -2137,7 +2124,7 @@
         <v>1.41</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
